--- a/StructureDefinition-CARIN-BB-Location.xlsx
+++ b/StructureDefinition-CARIN-BB-Location.xlsx
@@ -2150,7 +2150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>83</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>48</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-CARIN-BB-Location.xlsx
+++ b/StructureDefinition-CARIN-BB-Location.xlsx
@@ -945,8 +945,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-22T13:00:00+00:00"/&gt;
-  &lt;end value="2010-06-30T14:00:00+00:00"/&gt;
+  &lt;start value="2010-03-23T00:00:00+11:00"/&gt;
+  &lt;end value="2010-07-01T00:00:00+10:00"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
